--- a/Dokumentation + Diagramme etc/Kostenplan.xlsx
+++ b/Dokumentation + Diagramme etc/Kostenplan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Arbeitspaket-Bezeichnung</t>
   </si>
@@ -62,18 +62,6 @@
     <t>Umsetzung</t>
   </si>
   <si>
-    <t>ERD</t>
-  </si>
-  <si>
-    <t>Verhaltensdiagramme</t>
-  </si>
-  <si>
-    <t>SQL-Diagramme</t>
-  </si>
-  <si>
-    <t>Klassendiagramme</t>
-  </si>
-  <si>
     <t>Projektstruckturplan</t>
   </si>
   <si>
@@ -117,6 +105,27 @@
   </si>
   <si>
     <t>Projektmanagement: 110€</t>
+  </si>
+  <si>
+    <t>Datenbankdiagramm</t>
+  </si>
+  <si>
+    <t>Ist-Soll-Vergleich</t>
+  </si>
+  <si>
+    <t>Qualitätsmanagement</t>
+  </si>
+  <si>
+    <t>Schnittstellendefinition</t>
+  </si>
+  <si>
+    <t>Aktivitätsdiagramm</t>
+  </si>
+  <si>
+    <t>Sequenzdiagramm</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -758,7 +767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -766,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
@@ -783,7 +792,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -793,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -848,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -857,10 +866,10 @@
     <row r="9" spans="1:8" s="2" customFormat="1">
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D9" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -878,11 +887,11 @@
       <c r="A11" s="19"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D11" s="20">
         <f>SUM(D6:D10)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11" s="21">
         <f>SUM(E6:E10)</f>
@@ -911,9 +920,11 @@
     <row r="13" spans="1:8" s="2" customFormat="1">
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="16"/>
+        <v>16</v>
+      </c>
+      <c r="D13" s="16">
+        <v>2</v>
+      </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -923,7 +934,9 @@
       <c r="C14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="16"/>
+      <c r="D14" s="16">
+        <v>3</v>
+      </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -933,7 +946,9 @@
       <c r="C15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="16">
+        <v>4</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -941,9 +956,11 @@
     <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="D16" s="16">
+        <v>2</v>
+      </c>
       <c r="E16" s="27"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -951,9 +968,11 @@
     <row r="17" spans="1:7" s="2" customFormat="1">
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -961,16 +980,20 @@
     <row r="18" spans="1:7" s="2" customFormat="1">
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="D18" s="16">
+        <v>7</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1">
       <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="C19" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="D19" s="16"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -980,11 +1003,11 @@
       <c r="A20" s="19"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D20" s="20">
         <f>SUM(D13:D18)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E20" s="21">
         <f>SUM(E13:E19)</f>
@@ -1013,82 +1036,89 @@
     <row r="22" spans="1:7" s="2" customFormat="1">
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="D22" s="16">
+        <v>2</v>
+      </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="16"/>
+      <c r="C23" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="16">
+        <v>3</v>
+      </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="16">
+        <v>1</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="20">
+        <f>SUM(D22:D24)</f>
+        <v>6</v>
+      </c>
+      <c r="E25" s="21">
+        <f>SUM(E22:E24)</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <f>SUM(F22:F24)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <f>(E25-F25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="20">
-        <f>SUM(D22:D23)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="21">
-        <f>SUM(E22:E23)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="21">
-        <f>SUM(F22:F23)</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="12">
-        <f>(E24-F24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1">
-      <c r="A25" s="9"/>
-      <c r="B25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="15"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D28" s="16"/>
       <c r="E28" s="12"/>
@@ -1098,93 +1128,103 @@
     <row r="29" spans="1:7" s="2" customFormat="1">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="C29" s="12" t="s">
+        <v>20</v>
+      </c>
       <c r="D29" s="16"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="26">
-        <f>SUM(D26:D29)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="24">
-        <f>SUM(E26:E29)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="24">
-        <f>SUM(F26:F29)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="23">
-        <f>E30-F30</f>
-        <v>0</v>
-      </c>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="26">
+        <f>SUM(D27:D30)</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="24">
+        <f>SUM(E27:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="24">
+        <f>SUM(F27:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="23">
+        <f>E31-F31</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="15"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="26">
-        <f>SUM(D31:D33)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="24">
-        <f>SUM(E31:E33)</f>
-        <v>0</v>
-      </c>
-      <c r="F34" s="24">
-        <f>SUM(F31:F33)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="23">
-        <f>E34-F34</f>
-        <v>0</v>
-      </c>
+      <c r="A34" s="29"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="30"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1">
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" hidden="1">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="26">
+        <f>SUM(D32:D34)</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="24">
+        <f>SUM(E32:E34)</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="24">
+        <f>SUM(F32:F34)</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="23">
+        <f>E35-F35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="2" customFormat="1">
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" hidden="1">
@@ -1193,71 +1233,74 @@
     <row r="38" spans="1:7" s="2" customFormat="1" hidden="1">
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" ht="12" thickBot="1">
+    <row r="39" spans="1:7" s="2" customFormat="1" hidden="1">
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" ht="12" thickBot="1">
-      <c r="A40" s="37"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="39" t="s">
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" s="2" customFormat="1" ht="12" thickBot="1">
+      <c r="A41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="39" t="s">
+      <c r="F41" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="40" t="s">
+      <c r="G41" s="40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" ht="12" thickBot="1">
-      <c r="A41" s="32"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="34"/>
-      <c r="E41" s="33">
-        <f>E34+E30+E24+E20+E11</f>
-        <v>0</v>
-      </c>
-      <c r="F41" s="33">
-        <f>F34+F30+F24+F20+F11</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="31">
-        <f>E41-F41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="12">
-      <c r="B44" s="36" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="12">
-      <c r="B46" s="35" t="s">
-        <v>28</v>
+    <row r="42" spans="1:7" s="2" customFormat="1" ht="12" thickBot="1">
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="34"/>
+      <c r="E42" s="33">
+        <f>E35+E31+E25+E20+E11</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="33">
+        <f>F35+F31+F25+F20+F11</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="31">
+        <f>E42-F42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="12">
+      <c r="B45" s="36" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="12">
       <c r="B47" s="35" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="12">
       <c r="B48" s="35" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="12">
+      <c r="B49" s="35" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G29:G39 G41:G100 G6:G26">
+  <conditionalFormatting sqref="G30:G40 G42:G101 G6:G27">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G42 G6:G39">
+  <conditionalFormatting sqref="G42:G43 G6:G40">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/Dokumentation + Diagramme etc/Kostenplan.xlsx
+++ b/Dokumentation + Diagramme etc/Kostenplan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Arbeitspaket-Bezeichnung</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>ERD</t>
   </si>
 </sst>
 </file>
@@ -767,7 +770,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,7 +781,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
@@ -956,7 +959,7 @@
     <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D16" s="16">
         <v>2</v>

--- a/Dokumentation + Diagramme etc/Kostenplan.xlsx
+++ b/Dokumentation + Diagramme etc/Kostenplan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="-216" windowWidth="12072" windowHeight="9804"/>
+    <workbookView xWindow="12324" yWindow="-216" windowWidth="10740" windowHeight="9804"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Arbeitspaket-Bezeichnung</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Backend (Server)</t>
   </si>
   <si>
-    <t>Frontend (Client)</t>
-  </si>
-  <si>
     <t>Abschluss</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>ERD</t>
+  </si>
+  <si>
+    <t>/</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -443,9 +443,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -778,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
@@ -837,7 +834,9 @@
       <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12">
+        <v>110</v>
+      </c>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="22"/>
@@ -850,7 +849,9 @@
       <c r="D7" s="17">
         <v>5</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="12">
+        <v>550</v>
+      </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
@@ -862,7 +863,9 @@
       <c r="D8" s="17">
         <v>5</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12">
+        <v>550</v>
+      </c>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
     </row>
@@ -874,7 +877,9 @@
       <c r="D9" s="17">
         <v>5</v>
       </c>
-      <c r="E9" s="12"/>
+      <c r="E9" s="12">
+        <v>550</v>
+      </c>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
     </row>
@@ -898,7 +903,7 @@
       </c>
       <c r="E11" s="21">
         <f>SUM(E6:E10)</f>
-        <v>0</v>
+        <v>1760</v>
       </c>
       <c r="F11" s="21">
         <f>SUM(F6:F10)</f>
@@ -906,7 +911,7 @@
       </c>
       <c r="G11" s="12">
         <f>(E11-F11)</f>
-        <v>0</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
@@ -928,7 +933,10 @@
       <c r="D13" s="16">
         <v>2</v>
       </c>
-      <c r="E13" s="12"/>
+      <c r="E13" s="12">
+        <f>88*2</f>
+        <v>176</v>
+      </c>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
@@ -940,7 +948,10 @@
       <c r="D14" s="16">
         <v>3</v>
       </c>
-      <c r="E14" s="12"/>
+      <c r="E14" s="12">
+        <f>88*3</f>
+        <v>264</v>
+      </c>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
     </row>
@@ -952,53 +963,69 @@
       <c r="D15" s="16">
         <v>4</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="12">
+        <f>88*4</f>
+        <v>352</v>
+      </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
     </row>
     <row r="16" spans="1:8" s="2" customFormat="1">
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="16">
         <v>2</v>
       </c>
-      <c r="E16" s="27"/>
+      <c r="E16" s="27">
+        <f>2*88</f>
+        <v>176</v>
+      </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1">
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
       </c>
-      <c r="E17" s="12"/>
+      <c r="E17" s="12">
+        <v>88</v>
+      </c>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1">
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="16">
-        <v>7</v>
-      </c>
-      <c r="E18" s="12"/>
+        <v>6</v>
+      </c>
+      <c r="E18" s="12">
+        <f>6*88</f>
+        <v>528</v>
+      </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1">
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="D19" s="16">
+        <v>3</v>
+      </c>
+      <c r="E19" s="12">
+        <f>3*88</f>
+        <v>264</v>
+      </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
     </row>
@@ -1009,12 +1036,12 @@
         <v>13</v>
       </c>
       <c r="D20" s="20">
-        <f>SUM(D13:D18)</f>
-        <v>19</v>
+        <f>SUM(D13:D19)</f>
+        <v>21</v>
       </c>
       <c r="E20" s="21">
         <f>SUM(E13:E19)</f>
-        <v>0</v>
+        <v>1848</v>
       </c>
       <c r="F20" s="21">
         <f>SUM(F13:F19)</f>
@@ -1022,7 +1049,7 @@
       </c>
       <c r="G20" s="12">
         <f>(E20-F20)</f>
-        <v>0</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1">
@@ -1039,36 +1066,44 @@
     <row r="22" spans="1:7" s="2" customFormat="1">
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="16">
         <v>2</v>
       </c>
-      <c r="E22" s="12"/>
+      <c r="E22" s="12">
+        <f>2*98</f>
+        <v>196</v>
+      </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1">
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="16">
         <v>3</v>
       </c>
-      <c r="E23" s="12"/>
+      <c r="E23" s="12">
+        <f>3*98</f>
+        <v>294</v>
+      </c>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1">
       <c r="B24" s="12"/>
       <c r="C24" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="16">
         <v>1</v>
       </c>
-      <c r="E24" s="12"/>
+      <c r="E24" s="12">
+        <v>98</v>
+      </c>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
     </row>
@@ -1084,7 +1119,7 @@
       </c>
       <c r="E25" s="21">
         <f>SUM(E22:E24)</f>
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="F25" s="21">
         <f>SUM(F22:F24)</f>
@@ -1092,7 +1127,7 @@
       </c>
       <c r="G25" s="12">
         <f>(E25-F25)</f>
-        <v>0</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1">
@@ -1112,8 +1147,13 @@
       <c r="C27" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="14"/>
+      <c r="D27" s="15">
+        <v>5</v>
+      </c>
+      <c r="E27" s="14">
+        <f>5*98</f>
+        <v>490</v>
+      </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
     </row>
@@ -1123,111 +1163,120 @@
       <c r="C28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="12"/>
+      <c r="D28" s="16">
+        <v>21</v>
+      </c>
+      <c r="E28" s="12">
+        <f>21*98</f>
+        <v>2058</v>
+      </c>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="C29" s="12"/>
       <c r="D29" s="16"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="26">
+        <f>SUM(D27:D29)</f>
+        <v>26</v>
+      </c>
+      <c r="E30" s="24">
+        <f>SUM(E27:E29)</f>
+        <v>2548</v>
+      </c>
+      <c r="F30" s="24">
+        <f>SUM(F27:F29)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="23">
+        <f>E30-F30</f>
+        <v>2548</v>
+      </c>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1">
+      <c r="A32" s="28"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" s="14"/>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" s="23"/>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="26">
-        <f>SUM(D27:D30)</f>
+      <c r="D34" s="26">
+        <f>SUM(D31:D33)</f>
         <v>0</v>
       </c>
-      <c r="E31" s="24">
-        <f>SUM(E27:E30)</f>
+      <c r="E34" s="24">
+        <f>SUM(E31:E33)</f>
         <v>0</v>
       </c>
-      <c r="F31" s="24">
-        <f>SUM(F27:F30)</f>
+      <c r="F34" s="24">
+        <f>SUM(F31:F33)</f>
         <v>0</v>
       </c>
-      <c r="G31" s="23">
-        <f>E31-F31</f>
+      <c r="G34" s="23">
+        <f>E34-F34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1">
-      <c r="A34" s="29"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-    </row>
     <row r="35" spans="1:7" s="2" customFormat="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="26">
-        <f>SUM(D32:D34)</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="24">
-        <f>SUM(E32:E34)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="24">
-        <f>SUM(F32:F34)</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="23">
-        <f>E35-F35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="2" customFormat="1">
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" s="2" customFormat="1" hidden="1">
       <c r="D36" s="6"/>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" hidden="1">
@@ -1236,74 +1285,71 @@
     <row r="38" spans="1:7" s="2" customFormat="1" hidden="1">
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" hidden="1">
+    <row r="39" spans="1:7" s="2" customFormat="1" ht="12" thickBot="1">
       <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" ht="12" thickBot="1">
-      <c r="D40" s="6"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="39" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:7" s="2" customFormat="1" ht="12" thickBot="1">
-      <c r="A41" s="37"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="G41" s="40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="2" customFormat="1" ht="12" thickBot="1">
-      <c r="A42" s="32"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33" t="s">
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="34"/>
-      <c r="E42" s="33">
-        <f>E35+E31+E25+E20+E11</f>
+      <c r="D41" s="33"/>
+      <c r="E41" s="32">
+        <f>E34+E30+E25+E20+E11</f>
+        <v>6744</v>
+      </c>
+      <c r="F41" s="32">
+        <f>F34+F30+F25+F20+F11</f>
         <v>0</v>
       </c>
-      <c r="F42" s="33">
-        <f>F35+F31+F25+F20+F11</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="31">
-        <f>E42-F42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="12">
-      <c r="B45" s="36" t="s">
+      <c r="G41" s="30">
+        <f>E41-F41</f>
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="12">
+      <c r="B44" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="12">
+      <c r="B46" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="12">
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="34" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="12">
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="12">
-      <c r="B49" s="35" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="G30:G40 G42:G101 G6:G27">
+  <conditionalFormatting sqref="G29:G39 G41:G100 G6:G27">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G42:G43 G6:G40">
+  <conditionalFormatting sqref="G41:G42 G6:G39">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/Dokumentation + Diagramme etc/Kostenplan.xlsx
+++ b/Dokumentation + Diagramme etc/Kostenplan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Arbeitspaket-Bezeichnung</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Kosteplan Mittelstufenprojekt LS EVA</t>
   </si>
   <si>
-    <t>Zeit in h</t>
-  </si>
-  <si>
     <t>Use Case Diagramme</t>
   </si>
   <si>
@@ -129,6 +126,12 @@
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>Soll Zeit</t>
+  </si>
+  <si>
+    <t>Ist Zeit</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -437,9 +440,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -767,7 +767,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -775,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
@@ -787,46 +787,51 @@
     <col min="2" max="2" width="16.69921875" customWidth="1"/>
     <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.69921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="7"/>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="12">
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="12">
       <c r="A5" s="3"/>
       <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="11"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="11"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="12">
+      <c r="H5" s="3"/>
+      <c r="I5" s="22"/>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="12">
       <c r="B6" s="12"/>
       <c r="C6" s="12" t="s">
         <v>5</v>
@@ -834,14 +839,20 @@
       <c r="D6" s="16">
         <v>1</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
         <v>110</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="1:8" s="2" customFormat="1">
+      <c r="G6" s="12">
+        <f>E6*110</f>
+        <v>110</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1">
       <c r="B7" s="12"/>
       <c r="C7" s="13" t="s">
         <v>6</v>
@@ -849,13 +860,19 @@
       <c r="D7" s="17">
         <v>5</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="17">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12">
         <v>550</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" s="2" customFormat="1">
+      <c r="G7" s="12">
+        <f t="shared" ref="G7:G11" si="0">E7*110</f>
+        <v>440</v>
+      </c>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1">
       <c r="B8" s="12"/>
       <c r="C8" s="13" t="s">
         <v>7</v>
@@ -863,251 +880,328 @@
       <c r="D8" s="17">
         <v>5</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="17">
+        <v>5</v>
+      </c>
+      <c r="F8" s="12">
         <v>550</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:8" s="2" customFormat="1">
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1">
       <c r="B9" s="12"/>
       <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="17">
+        <v>6</v>
+      </c>
+      <c r="E9" s="17">
         <v>5</v>
       </c>
-      <c r="E9" s="12">
+      <c r="F9" s="12">
+        <v>660</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="0"/>
         <v>550</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" s="2" customFormat="1">
+      <c r="H9" s="12"/>
+    </row>
+    <row r="10" spans="1:9" s="2" customFormat="1">
       <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:8" s="2" customFormat="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18" t="s">
+      <c r="C10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="16">
+        <v>4</v>
+      </c>
+      <c r="E10" s="16">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12">
+        <v>440</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="H10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" s="2" customFormat="1">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="16">
+        <v>3</v>
+      </c>
+      <c r="E11" s="16">
+        <v>3</v>
+      </c>
+      <c r="F11" s="12">
+        <v>330</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="H11" s="12"/>
+    </row>
+    <row r="12" spans="1:9" s="2" customFormat="1">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+    </row>
+    <row r="13" spans="1:9" s="2" customFormat="1">
+      <c r="A13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="20">
-        <f>SUM(D6:D10)</f>
-        <v>16</v>
-      </c>
-      <c r="E11" s="21">
-        <f>SUM(E6:E10)</f>
-        <v>1760</v>
-      </c>
-      <c r="F11" s="21">
-        <f>SUM(F6:F10)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <f>(E11-F11)</f>
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1">
-      <c r="A12" s="9"/>
-      <c r="B12" s="3" t="s">
+      <c r="D13" s="20">
+        <f>SUM(D6:D11)</f>
+        <v>24</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21">
+        <f>SUM(F6:F11)</f>
+        <v>2640</v>
+      </c>
+      <c r="G13" s="21">
+        <f>SUM(G6:G11)</f>
+        <v>2420</v>
+      </c>
+      <c r="H13" s="12">
+        <f>(F13-G13)</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="2" customFormat="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="16">
-        <v>2</v>
-      </c>
-      <c r="E13" s="12">
-        <f>88*2</f>
-        <v>176</v>
-      </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="16">
-        <v>3</v>
-      </c>
-      <c r="E14" s="12">
-        <f>88*3</f>
-        <v>264</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1">
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" s="2" customFormat="1">
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D15" s="16">
-        <v>4</v>
-      </c>
-      <c r="E15" s="12">
-        <f>88*4</f>
-        <v>352</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:8" s="2" customFormat="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="16">
+        <v>3</v>
+      </c>
+      <c r="F15" s="12">
+        <f>D15*88</f>
+        <v>176</v>
+      </c>
+      <c r="G15" s="12">
+        <f>E15*88</f>
+        <v>264</v>
+      </c>
+      <c r="H15" s="12"/>
+    </row>
+    <row r="16" spans="1:9" s="2" customFormat="1">
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="16">
         <v>2</v>
       </c>
-      <c r="E16" s="27">
-        <f>2*88</f>
+      <c r="F16" s="12">
+        <f t="shared" ref="F16:F19" si="1">D16*88</f>
+        <v>88</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" ref="G16:G19" si="2">E16*88</f>
         <v>176</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" s="2" customFormat="1">
+      <c r="H16" s="12"/>
+    </row>
+    <row r="17" spans="1:8" s="2" customFormat="1">
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" s="2" customFormat="1">
+      <c r="G17" s="12">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="H17" s="12"/>
+    </row>
+    <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="16">
         <v>6</v>
       </c>
-      <c r="E18" s="12">
-        <f>6*88</f>
+      <c r="E18" s="16">
+        <v>6</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="1"/>
         <v>528</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" s="2" customFormat="1">
+      <c r="G18" s="12">
+        <f t="shared" si="2"/>
+        <v>528</v>
+      </c>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" s="2" customFormat="1">
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="16">
         <v>3</v>
       </c>
-      <c r="E19" s="12">
-        <f>3*88</f>
+      <c r="E19" s="16">
+        <v>3</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" s="2" customFormat="1">
+      <c r="G19" s="12">
+        <f t="shared" si="2"/>
+        <v>264</v>
+      </c>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="19"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="20">
-        <f>SUM(D13:D19)</f>
-        <v>21</v>
-      </c>
-      <c r="E20" s="21">
-        <f>SUM(E13:E19)</f>
-        <v>1848</v>
-      </c>
+        <f>SUM(D15:D19)</f>
+        <v>13</v>
+      </c>
+      <c r="E20" s="20"/>
       <c r="F20" s="21">
-        <f>SUM(F13:F19)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="12">
-        <f>(E20-F20)</f>
-        <v>1848</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1">
+        <f>SUM(F15:F19)</f>
+        <v>1144</v>
+      </c>
+      <c r="G20" s="21">
+        <f>SUM(G15:G19)</f>
+        <v>1320</v>
+      </c>
+      <c r="H20" s="12">
+        <f>(F20-G20)</f>
+        <v>-176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="2" customFormat="1">
       <c r="A21" s="9"/>
       <c r="B21" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="3"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" s="2" customFormat="1">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="16">
         <v>2</v>
       </c>
-      <c r="E22" s="12">
-        <f>2*98</f>
+      <c r="E22" s="16">
+        <v>3</v>
+      </c>
+      <c r="F22" s="12">
+        <f>D22*98</f>
         <v>196</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" s="2" customFormat="1">
+      <c r="G22" s="12">
+        <f>E22*98</f>
+        <v>294</v>
+      </c>
+      <c r="H22" s="12"/>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1">
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="16">
+        <v>4</v>
+      </c>
+      <c r="E23" s="16">
         <v>3</v>
       </c>
-      <c r="E23" s="12">
-        <f>3*98</f>
+      <c r="F23" s="12">
+        <f t="shared" ref="F23:F24" si="3">D23*98</f>
+        <v>392</v>
+      </c>
+      <c r="G23" s="12">
+        <f t="shared" ref="G23:G24" si="4">E23*98</f>
         <v>294</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" s="2" customFormat="1">
+      <c r="H23" s="12"/>
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1">
       <c r="B24" s="12"/>
       <c r="C24" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="16">
         <v>1</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
+      <c r="F24" s="12">
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1">
+      <c r="G24" s="12">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="H24" s="12"/>
+    </row>
+    <row r="25" spans="1:8" s="2" customFormat="1">
       <c r="A25" s="19"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18" t="s">
@@ -1115,74 +1209,89 @@
       </c>
       <c r="D25" s="20">
         <f>SUM(D22:D24)</f>
-        <v>6</v>
-      </c>
-      <c r="E25" s="21">
-        <f>SUM(E22:E24)</f>
-        <v>588</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E25" s="20"/>
       <c r="F25" s="21">
         <f>SUM(F22:F24)</f>
+        <v>686</v>
+      </c>
+      <c r="G25" s="21">
+        <f>SUM(G22:G24)</f>
+        <v>686</v>
+      </c>
+      <c r="H25" s="12">
+        <f>(F25-G25)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="12">
-        <f>(E25-F25)</f>
-        <v>588</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1">
+    </row>
+    <row r="26" spans="1:8" s="2" customFormat="1">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="3"/>
+      <c r="E26" s="5"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" s="2" customFormat="1">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="15">
         <v>5</v>
       </c>
-      <c r="E27" s="14">
-        <f>5*98</f>
+      <c r="E27" s="15">
+        <v>5</v>
+      </c>
+      <c r="F27" s="14">
+        <f>D27*98</f>
         <v>490</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1">
+      <c r="G27" s="14">
+        <f>E27*98</f>
+        <v>490</v>
+      </c>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" s="2" customFormat="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="16">
         <v>21</v>
       </c>
-      <c r="E28" s="12">
-        <f>21*98</f>
+      <c r="E28" s="16">
+        <v>21</v>
+      </c>
+      <c r="F28" s="14">
+        <f>D28*98</f>
         <v>2058</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" s="2" customFormat="1">
+      <c r="G28" s="14">
+        <f>E28*98</f>
+        <v>2058</v>
+      </c>
+      <c r="H28" s="12"/>
+    </row>
+    <row r="29" spans="1:8" s="2" customFormat="1">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="16"/>
-      <c r="E29" s="12"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-    </row>
-    <row r="30" spans="1:7" s="2" customFormat="1">
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="1:8" s="2" customFormat="1">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="25" t="s">
@@ -1192,65 +1301,69 @@
         <f>SUM(D27:D29)</f>
         <v>26</v>
       </c>
-      <c r="E30" s="24">
-        <f>SUM(E27:E29)</f>
-        <v>2548</v>
-      </c>
+      <c r="E30" s="26"/>
       <c r="F30" s="24">
         <f>SUM(F27:F29)</f>
+        <v>2548</v>
+      </c>
+      <c r="G30" s="24">
+        <f>SUM(G27:G29)</f>
+        <v>2548</v>
+      </c>
+      <c r="H30" s="23">
+        <f>F30-G30</f>
         <v>0</v>
       </c>
-      <c r="G30" s="23">
-        <f>E30-F30</f>
-        <v>2548</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1">
+    </row>
+    <row r="31" spans="1:8" s="2" customFormat="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="3"/>
+      <c r="E31" s="5"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1">
-      <c r="A32" s="28"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" s="2" customFormat="1">
+      <c r="A32" s="27"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E32" s="15"/>
       <c r="F32" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="14"/>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1">
-      <c r="A33" s="29"/>
+        <v>33</v>
+      </c>
+      <c r="G32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="1:8" s="2" customFormat="1">
+      <c r="A33" s="28"/>
       <c r="B33" s="23"/>
       <c r="C33" s="23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="E33" s="15"/>
       <c r="F33" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1">
+        <v>33</v>
+      </c>
+      <c r="G33" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="23"/>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="25" t="s">
@@ -1260,96 +1373,104 @@
         <f>SUM(D31:D33)</f>
         <v>0</v>
       </c>
-      <c r="E34" s="24">
-        <f>SUM(E31:E33)</f>
-        <v>0</v>
-      </c>
+      <c r="E34" s="26"/>
       <c r="F34" s="24">
         <f>SUM(F31:F33)</f>
         <v>0</v>
       </c>
-      <c r="G34" s="23">
-        <f>E34-F34</f>
+      <c r="G34" s="24">
+        <f>SUM(G31:G33)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" s="2" customFormat="1">
+      <c r="H34" s="23">
+        <f>F34-G34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1">
       <c r="D35" s="6"/>
-    </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" hidden="1">
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" hidden="1">
       <c r="D36" s="6"/>
-    </row>
-    <row r="37" spans="1:7" s="2" customFormat="1" hidden="1">
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:8" s="2" customFormat="1" hidden="1">
       <c r="D37" s="6"/>
-    </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" hidden="1">
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:8" s="2" customFormat="1" hidden="1">
       <c r="D38" s="6"/>
-    </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" ht="12" thickBot="1">
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" spans="1:8" s="2" customFormat="1" ht="12" thickBot="1">
       <c r="D39" s="6"/>
-    </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" ht="12" thickBot="1">
-      <c r="A40" s="36"/>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="38" t="s">
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="12" thickBot="1">
+      <c r="A40" s="35"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="G40" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="39" t="s">
+      <c r="H40" s="38" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="2" customFormat="1" ht="12" thickBot="1">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32" t="s">
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="12" thickBot="1">
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="32">
-        <f>E34+E30+E25+E20+E11</f>
-        <v>6744</v>
-      </c>
-      <c r="F41" s="32">
-        <f>F34+F30+F25+F20+F11</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="30">
-        <f>E41-F41</f>
-        <v>6744</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="12">
-      <c r="B44" s="35" t="s">
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="31">
+        <f>F34+F30+F25+F20+F13</f>
+        <v>7018</v>
+      </c>
+      <c r="G41" s="31">
+        <f>G34+G30+G25+G20+G13</f>
+        <v>6974</v>
+      </c>
+      <c r="H41" s="29">
+        <f>F41-G41</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="12">
+      <c r="B44" s="34" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="12">
+      <c r="B46" s="33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12">
-      <c r="B46" s="34" t="s">
+    <row r="47" spans="1:8" ht="12">
+      <c r="B47" s="33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="12">
-      <c r="B47" s="34" t="s">
+    <row r="48" spans="1:8" ht="12">
+      <c r="B48" s="33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="12">
-      <c r="B48" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="G29:G39 G41:G100 G6:G27">
+  <conditionalFormatting sqref="H29:H39 H41:H100 H6:H27">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G42 G6:G39">
+  <conditionalFormatting sqref="H41:H42 H6:H39">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/Dokumentation + Diagramme etc/Kostenplan.xlsx
+++ b/Dokumentation + Diagramme etc/Kostenplan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Arbeitspaket-Bezeichnung</t>
   </si>
@@ -210,7 +210,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -389,11 +389,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -417,30 +475,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -455,6 +495,29 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -767,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -777,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
@@ -829,44 +892,44 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="22"/>
+      <c r="I5" s="16"/>
     </row>
     <row r="6" spans="1:9" s="2" customFormat="1" ht="12">
       <c r="B6" s="12"/>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="35">
         <v>1</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="35">
         <v>1</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="36">
         <v>110</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="36">
         <f>E6*110</f>
         <v>110</v>
       </c>
       <c r="H6" s="12"/>
-      <c r="I6" s="22"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" s="2" customFormat="1">
       <c r="B7" s="12"/>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="37">
         <v>5</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="37">
         <v>4</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="38">
         <v>550</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="38">
         <f t="shared" ref="G7:G11" si="0">E7*110</f>
         <v>440</v>
       </c>
@@ -874,19 +937,19 @@
     </row>
     <row r="8" spans="1:9" s="2" customFormat="1">
       <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="37">
         <v>5</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="37">
         <v>5</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="38">
         <v>550</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="38">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
@@ -894,19 +957,19 @@
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1">
       <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="37">
         <v>6</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="37">
         <v>5</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="38">
         <v>660</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="38">
         <f t="shared" si="0"/>
         <v>550</v>
       </c>
@@ -914,19 +977,19 @@
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1">
       <c r="B10" s="12"/>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="39">
         <v>4</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="39">
         <v>4</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="38">
         <v>440</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="38">
         <f t="shared" si="0"/>
         <v>440</v>
       </c>
@@ -934,19 +997,19 @@
     </row>
     <row r="11" spans="1:9" s="2" customFormat="1">
       <c r="B11" s="12"/>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="39">
         <v>3</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="39">
         <v>3</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="38">
         <v>330</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="38">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
@@ -955,32 +1018,35 @@
     <row r="12" spans="1:9" s="2" customFormat="1">
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:9" s="2" customFormat="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="33">
         <f>SUM(D6:D11)</f>
         <v>24</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21">
+      <c r="E13" s="33">
+        <f>SUM(E6:E11)</f>
+        <v>22</v>
+      </c>
+      <c r="F13" s="34">
         <f>SUM(F6:F11)</f>
         <v>2640</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="34">
         <f>SUM(G6:G11)</f>
         <v>2420</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="31">
         <f>(F13-G13)</f>
         <v>220</v>
       </c>
@@ -999,20 +1065,20 @@
     </row>
     <row r="15" spans="1:9" s="2" customFormat="1">
       <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="35">
         <v>2</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="35">
         <v>3</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="36">
         <f>D15*88</f>
         <v>176</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="36">
         <f>E15*88</f>
         <v>264</v>
       </c>
@@ -1020,20 +1086,20 @@
     </row>
     <row r="16" spans="1:9" s="2" customFormat="1">
       <c r="B16" s="12"/>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="39">
         <v>1</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="39">
         <v>2</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="38">
         <f t="shared" ref="F16:F19" si="1">D16*88</f>
         <v>88</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="38">
         <f t="shared" ref="G16:G19" si="2">E16*88</f>
         <v>176</v>
       </c>
@@ -1041,20 +1107,20 @@
     </row>
     <row r="17" spans="1:8" s="2" customFormat="1">
       <c r="B17" s="12"/>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="39">
         <v>1</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="39">
         <v>1</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="38">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="38">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
@@ -1062,20 +1128,20 @@
     </row>
     <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="B18" s="12"/>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="39">
         <v>6</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="39">
         <v>6</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="38">
         <f t="shared" si="1"/>
         <v>528</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="38">
         <f t="shared" si="2"/>
         <v>528</v>
       </c>
@@ -1083,45 +1149,48 @@
     </row>
     <row r="19" spans="1:8" s="2" customFormat="1">
       <c r="B19" s="12"/>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="40">
         <v>3</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="40">
         <v>3</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="41">
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G19" s="41">
         <f t="shared" si="2"/>
         <v>264</v>
       </c>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" s="2" customFormat="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="33">
         <f>SUM(D15:D19)</f>
         <v>13</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="21">
+      <c r="E20" s="33">
+        <f>SUM(E15:E19)</f>
+        <v>15</v>
+      </c>
+      <c r="F20" s="34">
         <f>SUM(F15:F19)</f>
         <v>1144</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="34">
         <f>SUM(G15:G19)</f>
         <v>1320</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="31">
         <f>(F20-G20)</f>
         <v>-176</v>
       </c>
@@ -1140,20 +1209,20 @@
     </row>
     <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="B22" s="12"/>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="35">
         <v>2</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="35">
         <v>3</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="36">
         <f>D22*98</f>
         <v>196</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="36">
         <f>E22*98</f>
         <v>294</v>
       </c>
@@ -1161,20 +1230,20 @@
     </row>
     <row r="23" spans="1:8" s="2" customFormat="1">
       <c r="B23" s="12"/>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="39">
         <v>4</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="39">
         <v>3</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="38">
         <f t="shared" ref="F23:F24" si="3">D23*98</f>
         <v>392</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="38">
         <f t="shared" ref="G23:G24" si="4">E23*98</f>
         <v>294</v>
       </c>
@@ -1182,45 +1251,48 @@
     </row>
     <row r="24" spans="1:8" s="2" customFormat="1">
       <c r="B24" s="12"/>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="40">
         <v>1</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="40">
         <v>1</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="41">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G24" s="41">
         <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" s="2" customFormat="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="20">
+      <c r="D25" s="33">
         <f>SUM(D22:D24)</f>
         <v>7</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21">
+      <c r="E25" s="33">
+        <f>SUM(E22:E24)</f>
+        <v>7</v>
+      </c>
+      <c r="F25" s="34">
         <f>SUM(F22:F24)</f>
         <v>686</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="34">
         <f>SUM(G22:G24)</f>
         <v>686</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="31">
         <f>(F25-G25)</f>
         <v>0</v>
       </c>
@@ -1238,44 +1310,44 @@
       <c r="H26" s="3"/>
     </row>
     <row r="27" spans="1:8" s="2" customFormat="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D27" s="35">
         <v>5</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="35">
         <v>5</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="36">
         <f>D27*98</f>
         <v>490</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="36">
         <f>E27*98</f>
         <v>490</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" s="2" customFormat="1">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="39">
         <v>21</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="39">
         <v>21</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="38">
         <f>D28*98</f>
         <v>2058</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="38">
         <f>E28*98</f>
         <v>2058</v>
       </c>
@@ -1284,33 +1356,35 @@
     <row r="29" spans="1:8" s="2" customFormat="1">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" s="2" customFormat="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="26">
+      <c r="D30" s="33">
         <f>SUM(D27:D29)</f>
         <v>26</v>
       </c>
-      <c r="E30" s="26"/>
-      <c r="F30" s="24">
+      <c r="E30" s="33">
+        <v>26</v>
+      </c>
+      <c r="F30" s="34">
         <f>SUM(F27:F29)</f>
         <v>2548</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="34">
         <f>SUM(G27:G29)</f>
         <v>2548</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="31">
         <f>F30-G30</f>
         <v>0</v>
       </c>
@@ -1328,61 +1402,66 @@
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" s="2" customFormat="1">
-      <c r="A32" s="27"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E32" s="15"/>
-      <c r="F32" s="14" t="s">
+      <c r="E32" s="35"/>
+      <c r="F32" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="14"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" s="2" customFormat="1">
-      <c r="A33" s="28"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23" t="s">
+      <c r="A33" s="20"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="15"/>
-      <c r="F33" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H33" s="23"/>
+      <c r="D33" s="40">
+        <v>14</v>
+      </c>
+      <c r="E33" s="40">
+        <v>14</v>
+      </c>
+      <c r="F33" s="41">
+        <f>110*14</f>
+        <v>1540</v>
+      </c>
+      <c r="G33" s="41">
+        <v>1540</v>
+      </c>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" s="2" customFormat="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="26">
+      <c r="D34" s="33">
         <f>SUM(D31:D33)</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="26"/>
-      <c r="F34" s="24">
+        <v>14</v>
+      </c>
+      <c r="E34" s="33">
+        <v>14</v>
+      </c>
+      <c r="F34" s="34">
         <f>SUM(F31:F33)</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="24">
+        <v>1540</v>
+      </c>
+      <c r="G34" s="34">
         <f>SUM(G31:G33)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="23">
+        <v>1540</v>
+      </c>
+      <c r="H34" s="31">
         <f>F34-G34</f>
         <v>0</v>
       </c>
@@ -1408,59 +1487,59 @@
       <c r="E39" s="6"/>
     </row>
     <row r="40" spans="1:8" s="2" customFormat="1" ht="12" thickBot="1">
-      <c r="A40" s="35"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="37" t="s">
+      <c r="A40" s="27"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="G40" s="37" t="s">
+      <c r="G40" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H40" s="38" t="s">
+      <c r="H40" s="30" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="2" customFormat="1" ht="12" thickBot="1">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="31">
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="23">
         <f>F34+F30+F25+F20+F13</f>
-        <v>7018</v>
-      </c>
-      <c r="G41" s="31">
+        <v>8558</v>
+      </c>
+      <c r="G41" s="23">
         <f>G34+G30+G25+G20+G13</f>
-        <v>6974</v>
-      </c>
-      <c r="H41" s="29">
+        <v>8514</v>
+      </c>
+      <c r="H41" s="21">
         <f>F41-G41</f>
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12">
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12">
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="12">
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12">
-      <c r="B48" s="33" t="s">
+      <c r="B48" s="25" t="s">
         <v>24</v>
       </c>
     </row>

--- a/Dokumentation + Diagramme etc/Kostenplan.xlsx
+++ b/Dokumentation + Diagramme etc/Kostenplan.xlsx
@@ -830,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -847,11 +847,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
   <cols>
     <col min="1" max="1" width="1.3984375" customWidth="1"/>
-    <col min="2" max="2" width="16.69921875" customWidth="1"/>
+    <col min="2" max="2" width="12.8984375" customWidth="1"/>
     <col min="3" max="3" width="20.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.69921875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.69921875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">

--- a/Dokumentation + Diagramme etc/Kostenplan.xlsx
+++ b/Dokumentation + Diagramme etc/Kostenplan.xlsx
@@ -68,9 +68,6 @@
     <t>Gesamt:</t>
   </si>
   <si>
-    <t>Kosteplan Mittelstufenprojekt LS EVA</t>
-  </si>
-  <si>
     <t>Use Case Diagramme</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>Ist Zeit</t>
+  </si>
+  <si>
+    <t>Kosteplan Protokoll und Beschluss Anwendung</t>
   </si>
 </sst>
 </file>
@@ -830,7 +830,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -841,7 +841,7 @@
   <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
@@ -858,7 +858,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
@@ -1068,7 +1068,7 @@
     <row r="15" spans="1:9" s="2" customFormat="1">
       <c r="B15" s="12"/>
       <c r="C15" s="36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="35">
         <v>2</v>
@@ -1089,7 +1089,7 @@
     <row r="16" spans="1:9" s="2" customFormat="1">
       <c r="B16" s="12"/>
       <c r="C16" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="39">
         <v>1</v>
@@ -1110,7 +1110,7 @@
     <row r="17" spans="1:8" s="2" customFormat="1">
       <c r="B17" s="12"/>
       <c r="C17" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" s="39">
         <v>1</v>
@@ -1131,7 +1131,7 @@
     <row r="18" spans="1:8" s="2" customFormat="1">
       <c r="B18" s="12"/>
       <c r="C18" s="38" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="39">
         <v>6</v>
@@ -1152,7 +1152,7 @@
     <row r="19" spans="1:8" s="2" customFormat="1">
       <c r="B19" s="12"/>
       <c r="C19" s="43" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="40">
         <v>3</v>
@@ -1212,7 +1212,7 @@
     <row r="22" spans="1:8" s="2" customFormat="1">
       <c r="B22" s="12"/>
       <c r="C22" s="36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="35">
         <v>2</v>
@@ -1233,7 +1233,7 @@
     <row r="23" spans="1:8" s="2" customFormat="1">
       <c r="B23" s="12"/>
       <c r="C23" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="39">
         <v>4</v>
@@ -1254,7 +1254,7 @@
     <row r="24" spans="1:8" s="2" customFormat="1">
       <c r="B24" s="12"/>
       <c r="C24" s="43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="40">
         <v>1</v>
@@ -1302,7 +1302,7 @@
     <row r="26" spans="1:8" s="2" customFormat="1">
       <c r="A26" s="9"/>
       <c r="B26" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="5"/>
@@ -1315,7 +1315,7 @@
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27" s="35">
         <v>5</v>
@@ -1337,7 +1337,7 @@
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="39">
         <v>21</v>
@@ -1394,7 +1394,7 @@
     <row r="31" spans="1:8" s="2" customFormat="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="5"/>
@@ -1407,17 +1407,17 @@
       <c r="A32" s="19"/>
       <c r="B32" s="13"/>
       <c r="C32" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32" s="35"/>
       <c r="F32" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" s="36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H32" s="13"/>
     </row>
@@ -1425,7 +1425,7 @@
       <c r="A33" s="20"/>
       <c r="B33" s="17"/>
       <c r="C33" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="40">
         <v>14</v>
@@ -1527,22 +1527,22 @@
     </row>
     <row r="44" spans="1:8" ht="12">
       <c r="B44" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12">
       <c r="B46" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="12">
       <c r="B47" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12">
       <c r="B48" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
